--- a/importation/template.xlsx
+++ b/importation/template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f20bb36d615dd73c/Documentos/Trabalho/Yupa/Almani/Codes/YupaWebApplicationAPI/importation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\Trabalho\Yupa\Almani\Codes\YupaWebApplicationAPI\importation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{CC366875-6ED4-4840-A884-F1222D8A98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26A466F-FC47-434D-969E-F945E529215C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD0F14-36AA-4B94-8EA0-56406DD0C68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D91FF95-1C10-44DB-981F-88682B6A354F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Lote</t>
   </si>
@@ -63,91 +64,100 @@
     <t>FZR8A94</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>car_plate</t>
+  </si>
+  <si>
+    <t>impd_start_date</t>
+  </si>
+  <si>
+    <t>impd_target_date</t>
+  </si>
+  <si>
+    <t>impd_complete_kit</t>
+  </si>
+  <si>
+    <t>impd_restrition</t>
+  </si>
+  <si>
+    <t>impd_debit</t>
+  </si>
+  <si>
+    <t>impd_sale_com</t>
+  </si>
+  <si>
+    <t>impd_vistory_complete</t>
+  </si>
+  <si>
+    <t>impd_saler_pending</t>
+  </si>
+  <si>
+    <t>impd_crlv_avaible</t>
+  </si>
+  <si>
+    <t>impd_plate_change</t>
+  </si>
+  <si>
+    <t>impd_lote</t>
+  </si>
+  <si>
+    <t>impd_uf_transfer</t>
+  </si>
+  <si>
+    <t>impd_fineshed</t>
+  </si>
+  <si>
+    <t>Previsao de Conclusao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranferencia para UF </t>
+  </si>
+  <si>
+    <t>Restricoes</t>
+  </si>
+  <si>
+    <t>Debitos Veiculares</t>
+  </si>
+  <si>
+    <t>Comunicacao de Venda</t>
+  </si>
+  <si>
+    <t>Pendencias Comprador</t>
+  </si>
+  <si>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>Necessário Trocar Placa</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
     <t>XOD6E79</t>
   </si>
   <si>
     <t>BBC9A46</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>SIM</t>
-  </si>
-  <si>
-    <t>NÃO</t>
-  </si>
-  <si>
-    <t>car_plate</t>
-  </si>
-  <si>
-    <t>impd_start_date</t>
-  </si>
-  <si>
-    <t>impd_target_date</t>
-  </si>
-  <si>
-    <t>impd_complete_kit</t>
-  </si>
-  <si>
-    <t>impd_restrition</t>
-  </si>
-  <si>
-    <t>impd_debit</t>
-  </si>
-  <si>
-    <t>impd_sale_com</t>
-  </si>
-  <si>
-    <t>impd_vistory_complete</t>
-  </si>
-  <si>
-    <t>impd_saler_pending</t>
-  </si>
-  <si>
-    <t>impd_crlv_avaible</t>
-  </si>
-  <si>
-    <t>impd_plate_change</t>
-  </si>
-  <si>
-    <t>impd_lote</t>
-  </si>
-  <si>
-    <t>impd_uf_transfer</t>
-  </si>
-  <si>
-    <t>impd_fineshed</t>
-  </si>
-  <si>
-    <t>Previsao de Conclusao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranferencia para UF </t>
-  </si>
-  <si>
-    <t>Restricoes</t>
-  </si>
-  <si>
-    <t>Debitos Veiculares</t>
-  </si>
-  <si>
-    <t>Comunicacao de Venda</t>
-  </si>
-  <si>
-    <t>Pendencias Comprador</t>
-  </si>
-  <si>
-    <t>Concluido</t>
-  </si>
-  <si>
-    <t>Necessário Trocar Placa</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>002</t>
+  </si>
+  <si>
+    <t>BBC9A44</t>
   </si>
 </sst>
 </file>
@@ -631,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD96EF83-BE8E-4FA9-A75A-EC0192B55780}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D1" sqref="D1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,21 +652,10 @@
     <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -664,43 +663,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -708,128 +674,40 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11">
-        <v>45670</v>
-      </c>
-      <c r="E2" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11">
-        <v>45670</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11">
-        <v>45670</v>
-      </c>
-      <c r="E4" s="11">
-        <v>45674</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +732,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -865,7 +743,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -876,7 +754,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -887,10 +765,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>45674</v>
@@ -898,109 +776,109 @@
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1008,4 +886,163 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72346D6C-BD38-4E7E-824A-936C444BA1E6}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>45670</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45674</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>45670</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45674</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>45670</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45674</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/importation/template.xlsx
+++ b/importation/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\Trabalho\Yupa\Almani\Codes\YupaWebApplicationAPI\importation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD0F14-36AA-4B94-8EA0-56406DD0C68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242C062-4D13-40BA-A840-8DC2743918EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D91FF95-1C10-44DB-981F-88682B6A354F}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:L1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
